--- a/Excel/Reports.xlsx
+++ b/Excel/Reports.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reports" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
   <si>
     <t>No</t>
   </si>
@@ -41,136 +41,75 @@
     <t>AT Sidharth</t>
   </si>
   <si>
-    <t>An Intelligent Traffic Load Prediction Based Adaptive Channel Assignment Algorithm in SDN-IoT: A Deep Learning Approach</t>
-  </si>
-  <si>
     <t>1_AT Sidharth</t>
   </si>
   <si>
     <t>Abhay Balan</t>
   </si>
   <si>
-    <t>Colour balancing and fusion for under water image enhancement</t>
-  </si>
-  <si>
     <t>2_Abhay Balan</t>
   </si>
   <si>
     <t>Abhinav TK</t>
   </si>
   <si>
-    <t>Towards a SDN-Based Integrated Architecture for Mitigating IP Spoofing Attack</t>
-  </si>
-  <si>
     <t>3_Abhinav TK</t>
   </si>
   <si>
     <t>Afna Salam</t>
   </si>
   <si>
-    <t>Action recognition in video sequences using deep bi-directional LSTM with CNN FEATURES</t>
-  </si>
-  <si>
     <t>4_Afna Salam</t>
   </si>
   <si>
     <t>Ajay Ajith</t>
   </si>
   <si>
-    <t>Blockchain meets Iot an architecture for scalable access management system</t>
-  </si>
-  <si>
     <t>5_Ajay Ajith</t>
   </si>
   <si>
     <t>Akhil Murali</t>
   </si>
   <si>
-    <t>Making Big Data Open in Edges: A 
-Resource-Efficient Blockchain-based Approach</t>
-  </si>
-  <si>
     <t>6_Akhil Murali</t>
   </si>
   <si>
     <t>Akhila Dinesh R</t>
   </si>
   <si>
-    <t>Deep CNN Based blind image quality predictor</t>
-  </si>
-  <si>
     <t>7_Akhila Dinesh R</t>
   </si>
   <si>
     <t>Alka Susan</t>
   </si>
   <si>
-    <t>when intrusion detection meets blockchain: a review</t>
-  </si>
-  <si>
     <t>8_Alka Susan</t>
   </si>
   <si>
     <t>Amrutha Sajeevan</t>
   </si>
   <si>
-    <t>Artificial Intelligence based Techniques for Emerging Heterogeneous Network State of the Arts, Opportunities and Challenges</t>
-  </si>
-  <si>
-    <t>9_Amrutha Sajeevan</t>
-  </si>
-  <si>
-    <t>Anand Chandar</t>
-  </si>
-  <si>
-    <t>10_Anand Chandar</t>
-  </si>
-  <si>
     <t>Anika Babu</t>
   </si>
   <si>
-    <t>collective list only entity linking - A graph based approach</t>
-  </si>
-  <si>
     <t>11_Anika Babu</t>
   </si>
   <si>
     <t>Anjali Siji</t>
   </si>
   <si>
-    <t>A novel Design framework for smart operating robot in power system.</t>
-  </si>
-  <si>
     <t>12_Anjali Siji</t>
   </si>
   <si>
-    <t>Anusree P S</t>
-  </si>
-  <si>
-    <t>Authentication with block-chain algorithm and text encryption protocol in calculation of social network</t>
-  </si>
-  <si>
-    <t>13_Anusree P S</t>
-  </si>
-  <si>
     <t>Archana Manoj</t>
   </si>
   <si>
-    <t>Efficient and consistent flow update for software defined networks</t>
-  </si>
-  <si>
     <t>14_Archana Manoj</t>
   </si>
   <si>
     <t>Ardra P V</t>
   </si>
   <si>
-    <t>Intelligent Map Reader-A Frame work for Topographic Map Understanding With Deep Learning and Gazetteer</t>
-  </si>
-  <si>
-    <t>15_Ardra P V</t>
-  </si>
-  <si>
     <t>Ashlay Cyriac</t>
   </si>
   <si>
@@ -180,9 +119,6 @@
     <t>Aynical Shreya</t>
   </si>
   <si>
-    <t>Cyber Physical System for Stroke Detection</t>
-  </si>
-  <si>
     <t>17_Aynical Shreya</t>
   </si>
   <si>
@@ -195,63 +131,36 @@
     <t>Benjamin C Hurdins</t>
   </si>
   <si>
-    <t>clustered crowd GPS for privacy valuing active localization</t>
-  </si>
-  <si>
     <t>19_Benjamin C Hurdins</t>
   </si>
   <si>
     <t>Binil Biju</t>
   </si>
   <si>
-    <t>A user-friendly privacy framework for users to achieve consents with nearby BLE devices</t>
-  </si>
-  <si>
     <t>20_Binil Biju</t>
   </si>
   <si>
     <t>Christo Joby</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>21_Christo Joby</t>
   </si>
   <si>
     <t>Clint Mathews</t>
   </si>
   <si>
-    <t>Social Fingerprinting: Detection of spambot groups through DNA - inspired behavioural modeling</t>
-  </si>
-  <si>
     <t>22_Clint Mathews</t>
   </si>
   <si>
     <t>Deepul Nair</t>
   </si>
   <si>
-    <t>Sparse-TDA: Sparse Realization Of Topological Data Analysis For Multi Way Classification</t>
-  </si>
-  <si>
     <t>23_Deepul Nair</t>
   </si>
   <si>
-    <t>Dilna v</t>
-  </si>
-  <si>
-    <t>A Hybrid Approach for Identification of Manhole and Staircase to Assist Visually Challenged</t>
-  </si>
-  <si>
-    <t>24_Dilna v</t>
-  </si>
-  <si>
     <t>Dipin George</t>
   </si>
   <si>
-    <t>25_Dipin George</t>
-  </si>
-  <si>
     <t>Earnest George</t>
   </si>
   <si>
@@ -267,31 +176,19 @@
     <t>Hari Sankar</t>
   </si>
   <si>
-    <t>Real-Time Urban Microclimate Analysis Using Internet of Things</t>
-  </si>
-  <si>
     <t>28_Hari Sankar</t>
   </si>
   <si>
     <t>Indhu Preetha</t>
   </si>
   <si>
-    <t>29_Indhu Preetha</t>
-  </si>
-  <si>
     <t>Jifini Ann Jose</t>
   </si>
   <si>
-    <t>transparent two factor authentication</t>
-  </si>
-  <si>
     <t>30_Jifini Ann Jose</t>
   </si>
   <si>
     <t>Jithesh Raj</t>
-  </si>
-  <si>
-    <t>Fog assisted IoT enabled Patient Health Monitoring in Smart Homes</t>
   </si>
   <si>
     <t>31_Jithesh Raj</t>
@@ -310,52 +207,27 @@
     <t>Joseph Ashwin Kottapurath</t>
   </si>
   <si>
-    <t>33_Joseph Ashwin Kottapurath</t>
-  </si>
-  <si>
     <t>Kiran K K</t>
   </si>
   <si>
-    <t>34_Kiran K K</t>
-  </si>
-  <si>
     <t>Mathews Joseph</t>
   </si>
   <si>
-    <t>Real-time myocontrol of a human computer interface by paretic muscles after stroke</t>
-  </si>
-  <si>
     <t>35_Mathews Joseph</t>
   </si>
   <si>
     <t>Megha Sony</t>
   </si>
   <si>
-    <t>WiFind- driver fatigue detection with fine grained wi-fi signal features</t>
-  </si>
-  <si>
     <t>36_Megha Sony</t>
   </si>
   <si>
     <t>Midhun P</t>
   </si>
   <si>
-    <t>Consortium Blockchain-Based Malware 
-Detection in Mobile Devices</t>
-  </si>
-  <si>
     <t>37_Midhun P</t>
   </si>
   <si>
-    <t>Midhun S</t>
-  </si>
-  <si>
-    <t>Blockchain- Enabled Security in Electric Vehicles Cloud and Edge Computing</t>
-  </si>
-  <si>
-    <t>38_Midhun S</t>
-  </si>
-  <si>
     <t>Mishal Kodalam Pollath</t>
   </si>
   <si>
@@ -371,84 +243,45 @@
     <t>Nishwa Fathima</t>
   </si>
   <si>
-    <t>cloud storage for EHR based on secret sharing with verifiable reconstruction outsourcing</t>
-  </si>
-  <si>
     <t>41_Nishwa Fathima</t>
   </si>
   <si>
-    <t>Nitha Chalil</t>
-  </si>
-  <si>
-    <t>Concurrency Analysis in Dynamic dataflow graphs</t>
-  </si>
-  <si>
-    <t>42_Nitha Chalil</t>
-  </si>
-  <si>
     <t>Nithin Benny</t>
   </si>
   <si>
-    <t>Light-Weight Security and Data Provenance for Multi-Hop Internet of Things</t>
-  </si>
-  <si>
     <t>43_Nithin Benny</t>
   </si>
   <si>
     <t>Panchami A Mohan</t>
   </si>
   <si>
-    <t>Minimisation of power consumption in video servers by the combined use of solid state disk and multi-speed disks</t>
-  </si>
-  <si>
     <t>44_Panchami A Mohan</t>
   </si>
   <si>
     <t>Pranav PK</t>
   </si>
   <si>
-    <t>45_Pranav PK</t>
-  </si>
-  <si>
     <t>Prem Jyothi</t>
   </si>
   <si>
-    <t>Edge computing architecture for mobile crowdsensing</t>
-  </si>
-  <si>
     <t>46_Prem Jyothi</t>
   </si>
   <si>
     <t>Rahul A</t>
   </si>
   <si>
-    <t>47_Rahul A</t>
-  </si>
-  <si>
     <t>Rasna K</t>
   </si>
   <si>
-    <t>blockchain for large scale internet of things data storage and protection</t>
-  </si>
-  <si>
-    <t>48_Rasna K</t>
-  </si>
-  <si>
     <t>Reshma Joshy</t>
   </si>
   <si>
-    <t>A security architecture for 5G network</t>
-  </si>
-  <si>
     <t>49_Reshma Joshy</t>
   </si>
   <si>
     <t>Reshma Reghunath</t>
   </si>
   <si>
-    <t>Interactive medical image segmentation using deep learning with image specific fine tuning</t>
-  </si>
-  <si>
     <t>50_Reshma Reghunath</t>
   </si>
   <si>
@@ -458,118 +291,415 @@
     <t>51_Revathy Surendran</t>
   </si>
   <si>
-    <t>rohith r nair</t>
-  </si>
-  <si>
-    <t>Multi center brain imaging classification using a novel 3d CNN approach</t>
-  </si>
-  <si>
-    <t>52_rohith r nair</t>
-  </si>
-  <si>
     <t>Rose Mary Abraham</t>
   </si>
   <si>
-    <t>An empirical study on modelling and prediction of Bitcoin prices with Bayesian Neural Networks based on blockchain information</t>
-  </si>
-  <si>
     <t>53_Rose Mary Abraham</t>
   </si>
   <si>
-    <t>saheer s</t>
-  </si>
-  <si>
-    <t>Voice disorder detection by using machine learning</t>
-  </si>
-  <si>
-    <t>54_saheer s</t>
-  </si>
-  <si>
     <t>Saritha K S</t>
   </si>
   <si>
-    <t>Live migration in Bare-metal clouds</t>
-  </si>
-  <si>
-    <t>55_Saritha K S</t>
-  </si>
-  <si>
-    <t>shilpa kv</t>
-  </si>
-  <si>
-    <t>emotion based music recommendation system using wearable physiological sensors</t>
-  </si>
-  <si>
-    <t>56_shilpa kv</t>
-  </si>
-  <si>
-    <t>shilpa sreedhar</t>
-  </si>
-  <si>
-    <t>bitcoin security under broken cryptographic primitives</t>
-  </si>
-  <si>
-    <t>57_shilpa sreedhar</t>
-  </si>
-  <si>
-    <t>sijo saji</t>
-  </si>
-  <si>
-    <t>semantic multimedia using fog computing</t>
-  </si>
-  <si>
-    <t>58_sijo saji</t>
-  </si>
-  <si>
-    <t>sreelakshmi hari</t>
-  </si>
-  <si>
-    <t>Smart wearable hand device for sign language interpretation</t>
-  </si>
-  <si>
-    <t>59_sreelakshmi hari</t>
-  </si>
-  <si>
-    <t>sreelakshmi prasanth</t>
-  </si>
-  <si>
-    <t>Deep learning applications in medical image analysis</t>
-  </si>
-  <si>
-    <t>60_sreelakshmi prasanth</t>
-  </si>
-  <si>
-    <t>sterin jolly</t>
-  </si>
-  <si>
-    <t>machine learning with iot data for risk prediction: application in ESRD</t>
-  </si>
-  <si>
-    <t>61_sterin jolly</t>
-  </si>
-  <si>
-    <t>tom john</t>
-  </si>
-  <si>
-    <t>Convolutional Neural Networks based fire detection in surveillance videos</t>
-  </si>
-  <si>
-    <t>62_tom john</t>
-  </si>
-  <si>
-    <t>vishnupriya</t>
-  </si>
-  <si>
-    <t>A Swarm Intelligence algorithm for Routing Recovery Strategy In Wireless Sensor Networks With Mobile Sink</t>
-  </si>
-  <si>
-    <t>63_vishnupriya</t>
-  </si>
-  <si>
-    <t>a software defined fog node based distributed blockchain cloud architecture for iot</t>
-  </si>
-  <si>
-    <t>64_</t>
+    <t>24_Dilna V</t>
+  </si>
+  <si>
+    <t>Dilna V</t>
+  </si>
+  <si>
+    <t>Rohith R Nair</t>
+  </si>
+  <si>
+    <t>52_Rohith R Nair</t>
+  </si>
+  <si>
+    <t>Saheer S</t>
+  </si>
+  <si>
+    <t>54_Saheer S</t>
+  </si>
+  <si>
+    <t>56_Shilpa KV</t>
+  </si>
+  <si>
+    <t>Shilpa KV</t>
+  </si>
+  <si>
+    <t>AN INTELLIGENT TRAFFIC LOAD
+PREDICTION BASED ADAPTIVE CHANNEL
+ASSIGNMENT ALGORITHM IN SDN-IOT</t>
+  </si>
+  <si>
+    <t>COLOR BALANCE AND FUSION FOR
+UNDERWATER IMAGE ENHANCEMENT</t>
+  </si>
+  <si>
+    <t>TOWARDS A SDN-BASED INTEGRATED
+ARCHITECTURE FOR MITIGATING IP
+SPOOFING ATTACK</t>
+  </si>
+  <si>
+    <t>ACTION RECOGNITION IN VIDEO
+SEQUENCES USING DEEP BI-DIRECTIONAL
+LSTM WITH CNN FEATURES</t>
+  </si>
+  <si>
+    <t>BLOCKCHAIN MEETS IOT: AN
+ARCHITECTURE FOR SCALABLE ACCESS
+MANAGEMENT IN IOT</t>
+  </si>
+  <si>
+    <t>MAKING BIG DATA OPEN IN EDGES: A
+RESOURCE-EFFICIENT
+BLOCKCHAIN-BASED APPROACH</t>
+  </si>
+  <si>
+    <t>DEEP CNN BASED BLIND IMAGE QUALITY
+PREDICTOR</t>
+  </si>
+  <si>
+    <t>WHEN INTRUSION DETECTION MEETS
+BLOCKCHAIN TECHNOLOGY: A REVIEW</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>5G-QOE: QOE MODELLING FOR ULTRA-HD
+VIDEO STREAMING IN 5G NETWORKS</t>
+  </si>
+  <si>
+    <t>Anand Chandar PB</t>
+  </si>
+  <si>
+    <t>10_Anand Chandar PB</t>
+  </si>
+  <si>
+    <t>COLLECTIVE LIST-ONLY ENTITY LINKING:
+A GRAPH BASED APPROACH</t>
+  </si>
+  <si>
+    <t>A NOVEL DESIGN FRAMEWORK FOR
+SMART OPERATING ROBOT IN POWER
+SYSTEM</t>
+  </si>
+  <si>
+    <t>Authentication With Block-Chain Algorithm and
+Text Encryption Protocol in Calculation of Social
+Network</t>
+  </si>
+  <si>
+    <t>Anusree PS</t>
+  </si>
+  <si>
+    <t>13_Anusree PS</t>
+  </si>
+  <si>
+    <t>Efficient and Consistent Flow Update for
+Software Defined Networks</t>
+  </si>
+  <si>
+    <t>INTELLIGENT MAP READER:A FRAME
+WORK FOR TOPOGRAPHIC MAP
+UNDERSTANDING WITH DEEP LEARNING
+AND GAZETTEER</t>
+  </si>
+  <si>
+    <t>15_Ardra PV</t>
+  </si>
+  <si>
+    <t>A SURVEY ON UNMANNED AERIAL
+VEHICLE REMOTE CONTROL USING
+BRAINCOMPUTER INTERFACE</t>
+  </si>
+  <si>
+    <t>CYBER PHYSICAL SYSTEM FOR
+STROKE DETECTION</t>
+  </si>
+  <si>
+    <t>TRAFFIC SIGN RECOGNITION USING A
+MULTI- TASK CONVOLUTIONAL NEURAL
+NETWORK</t>
+  </si>
+  <si>
+    <t>CLUSTERED CROWD GPS FOR PRIVACY
+VALUING ACTIVE LOCALIZATION</t>
+  </si>
+  <si>
+    <t>A USER-FRIENDLY PRIVACY FRAMEWORK
+FOR USERS TO ACHIEVE CONSENTS WITH
+NEARBY BLE DEVICES</t>
+  </si>
+  <si>
+    <t>HYBRID ROBUST IRIS RECOGNITION
+APPROACH USING IRIS IMAGE
+PRE-PROCESSING, TWO-DIMENSIONAL
+GABOR FEATURES AND MULTI-LAYER
+PERCEPTRON NEURAL NETWORK/PSO</t>
+  </si>
+  <si>
+    <t>SOCIAL FINGERPRINTING: DETECTION OF
+SPAMBOT GROUPS THROUGH
+DNA-INSPIRED BEHAVIORAL MODELING</t>
+  </si>
+  <si>
+    <t>CLICKSTREAM ANALYSIS FOR
+CROWD-BASED OBJECT SEGMENTATION
+WITH CONFIDENCE</t>
+  </si>
+  <si>
+    <t>A HYBRID APPROACH FOR
+IDENTIFICATION OF MANHOLE AND
+STAIRCASE TO ASSIST VISUALLY
+CHALLENGED</t>
+  </si>
+  <si>
+    <t>RECOGNITION OF HUMAN COMPUTER
+OPERATIONS BASED ON KEYSTROKE
+SENSING BY SMARTPHONE MICROPHONE</t>
+  </si>
+  <si>
+    <t>REAL-TIME URBAN MICROCLIMATE
+ANALYSIS USING INTERNET OF THINGS</t>
+  </si>
+  <si>
+    <t>DETECTION OF MALICIOUS CODE
+VARIANTS BASED ON DEEP LEARNING</t>
+  </si>
+  <si>
+    <t>PERFORMANCE MODELING AND
+SUITABILITY ASSESSMENT OF DATA
+CENTER BASED ON FOG COMPUTING IN
+SMART SYSTEMS</t>
+  </si>
+  <si>
+    <t>29_Indhu P</t>
+  </si>
+  <si>
+    <t>Transparent Two Factor Authentication</t>
+  </si>
+  <si>
+    <t>MATCHING SOFTWARE-GENERATED
+SKETCHES TO FACE PHOTOS WITH A VERY
+DEEP CNN, MORPHED FACES, AND
+TRANSFER LEARNING</t>
+  </si>
+  <si>
+    <t>SECURITY ARCHITECTURE FOR A SECURE
+DATABASE ON ANDROID</t>
+  </si>
+  <si>
+    <t>33_Joseph Ashwin</t>
+  </si>
+  <si>
+    <t>ACCIDENT AND ALCOHOL DETECTION IN
+BLUETOOTH ENABLED SMART HELMETS FOR
+MOTORBIKES</t>
+  </si>
+  <si>
+    <t>34_Kiran</t>
+  </si>
+  <si>
+    <t>REAL-TIME MYOCONTROL OF A
+HUMAN-COMPUTER INTERFACE BY
+PARETIC MUSCLES AFTER STROKE</t>
+  </si>
+  <si>
+    <t>WIFIND:DRIVER FATIGUE DETECTION
+WITH FINE-GRAINED WI-FI SIGNAL
+FEATURES</t>
+  </si>
+  <si>
+    <t>LICO: A LIGHTWEIGHT ACCESS CONTROL
+MODEL FOR INTER-NETWORKING
+LINKAGES</t>
+  </si>
+  <si>
+    <t>Midhun Sabu</t>
+  </si>
+  <si>
+    <t>38_Midhun Sabu</t>
+  </si>
+  <si>
+    <t>BLOCKCHAIN-ENABLED SECURITY IN
+ELECTRIC VEHICLES CLOUD AND EDGE
+COMPUTING</t>
+  </si>
+  <si>
+    <t>TRAJECTORY MINING USING UNCERTAIN
+SENSOR DATA</t>
+  </si>
+  <si>
+    <t>Automatic Atrial Fibrillation Detection Based on
+Heart Rate Variability and Spectral Features</t>
+  </si>
+  <si>
+    <t>CLOUD STORAGE FOR ELECTRONIC
+HEALTH RECORDS BASED ON SECRET
+SHARING</t>
+  </si>
+  <si>
+    <t>Nitha Fathima</t>
+  </si>
+  <si>
+    <t>42_Nitha Fathima</t>
+  </si>
+  <si>
+    <t>CONCURRENCY ANALYSIS IN DYNAMIC
+DATAFLOW GRAPHS</t>
+  </si>
+  <si>
+    <t>LIGHT-WEIGHT SECURITY AND DATA
+PROVENANCE FOR MULTI-HOP INTERNET
+OF THINGS</t>
+  </si>
+  <si>
+    <t>MINIMIZING POWER CONSUMPTION IN
+VIDEO SERVERS BY THE COMBINED USE OF
+SOLID-STATE DISKS AND MULTI-SPEED
+DISKS</t>
+  </si>
+  <si>
+    <t>45_Pranav</t>
+  </si>
+  <si>
+    <t>ADAPTIVE FEATURE MAPPING FOR
+CUSTOMIZING DEEP LEARNING BASED
+FACIAL EXPRESSION RECOGNITION
+MODEL</t>
+  </si>
+  <si>
+    <t>EDGE COMPUTING ARCHITECTURE FOR
+MOBILE CROWDSENSING</t>
+  </si>
+  <si>
+    <t>CrowdVision: A Computing Platform for Video
+Crowdprocessing Using Deep Learning</t>
+  </si>
+  <si>
+    <t>47_Rahul</t>
+  </si>
+  <si>
+    <t>Blockchain For Large-Scale Internet of Things
+Data Storage and Protection</t>
+  </si>
+  <si>
+    <t>48_Rasna</t>
+  </si>
+  <si>
+    <t>A SECURITY ARCHITECTURE FOR 5G
+NETWORK</t>
+  </si>
+  <si>
+    <t>INTERACTIVE MEDICAL IMAGE
+SEGMENTATION USING DEEP LEARNING
+WITH IMAGE SPECIFIC FINE TUNING</t>
+  </si>
+  <si>
+    <t>AERIAL CAMERA NETWORK FOR
+OBSERVING MOVING TARGETS</t>
+  </si>
+  <si>
+    <t>MULTI CENTER BRAIN IMAGING
+CLASSIFICATION USING A NOVEL 3D CNN
+APPROACH</t>
+  </si>
+  <si>
+    <t>AN EMPIRICAL STUDY ON MODELLING AND
+PREDICTION OF BITCOIN PRICES WITH
+BAYESIAN NEURAL NETWORKS BASED ON
+BLOCKCHAIN INFORMATION</t>
+  </si>
+  <si>
+    <t>VOICE DISORDER IDENTIFICATION BY
+USING MACHINE LEARNING TECHNIQUES</t>
+  </si>
+  <si>
+    <t>LIVE MIGRATION IN BARE-METAL CLOUDS</t>
+  </si>
+  <si>
+    <t>55_Saritha KS</t>
+  </si>
+  <si>
+    <t>EMOTION BASED MUSIC
+RECOMMENDATION SYSTEM USING
+WEARABLE PHYSIOLOGICAL SENSORS</t>
+  </si>
+  <si>
+    <t>WHEN THE ”CRYPTO” IN
+CRYPTOCURRENCIES BREAKS: BITCOIN
+SECURITY UNDER BROKEN PRIMITIVES</t>
+  </si>
+  <si>
+    <t>57_Shilpa Sreedhar K</t>
+  </si>
+  <si>
+    <t>Shilpa Sreedhar K</t>
+  </si>
+  <si>
+    <t>Sijo Saji</t>
+  </si>
+  <si>
+    <t>58_Sijo Saji</t>
+  </si>
+  <si>
+    <t>SEMANTIC MULTIMEDIA FOG COMPUTING
+AND IOT ENVIROMENT: SUSTAINABILITY
+PERSPECTIVE</t>
+  </si>
+  <si>
+    <t>SMART WEARABLE HAND DEVICE FOR
+SIGN LANGUAGE INTERPRETATION
+SYSTEM WITH SENSORS FUSION</t>
+  </si>
+  <si>
+    <t>Sreelakshmi Hari</t>
+  </si>
+  <si>
+    <t>59_Sreelakshmi Hari</t>
+  </si>
+  <si>
+    <t>Deep Learning Applications in Medical Image
+Analysis</t>
+  </si>
+  <si>
+    <t>Sreelakshmi Prasanth</t>
+  </si>
+  <si>
+    <t>60_Sreelakshmi Prasanth</t>
+  </si>
+  <si>
+    <t>CONVOLUTIONAL NEURAL NETWORKS
+BASED FIRE DETECTION IN SURVEILLANCE
+VIDEOS</t>
+  </si>
+  <si>
+    <t>Sterin Jolly</t>
+  </si>
+  <si>
+    <t>61_Sterin Jolly</t>
+  </si>
+  <si>
+    <t>A SWARM INTELLIGENCE ALGORITHM FOR
+ROUTING RECOVERY STRATEGY IN
+WIRELESS SENSOR NETWORKS WITH
+MOBILE SINK</t>
+  </si>
+  <si>
+    <t>Tom John</t>
+  </si>
+  <si>
+    <t>62_Tom John</t>
+  </si>
+  <si>
+    <t>A SOFTWARE DEFINED FOG NODE BASED
+DISTRIBUTED BLOCKCHAIN CLOUD
+ARCHITECTURE FOR IoT</t>
+  </si>
+  <si>
+    <t>Vishnupriya</t>
+  </si>
+  <si>
+    <t>63_Vishnupriya</t>
   </si>
 </sst>
 </file>
@@ -890,13 +1020,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="69.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -912,116 +1047,116 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,214 +1164,223 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,57 +1388,69 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,328 +1458,349 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
+        <v>63</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
+        <v>142</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
+        <v>71</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
+        <v>148</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>128</v>
+        <v>78</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" t="s">
-        <v>133</v>
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" t="s">
-        <v>136</v>
+        <v>82</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" t="s">
-        <v>139</v>
+        <v>84</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>86</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" t="s">
-        <v>144</v>
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" t="s">
-        <v>150</v>
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,136 +1808,125 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" t="s">
-        <v>156</v>
+        <v>98</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" t="s">
-        <v>159</v>
+        <v>171</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" t="s">
-        <v>165</v>
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" t="s">
-        <v>168</v>
+        <v>179</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>174</v>
+        <v>185</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Reports.xlsx
+++ b/Excel/Reports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav TK\Desktop\Seminar Reports\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav TK\Documents\github\Seminar 2015-18\Seminar-Report-Index-2015-18-\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="188">
   <si>
     <t>No</t>
   </si>
@@ -195,13 +195,6 @@
   </si>
   <si>
     <t>Jithin K N</t>
-  </si>
-  <si>
-    <t>Matching Software-Generated Sketches to Face Photos with a Very Deep CNN, Morphed Faces, 
-and Transfer Learning</t>
-  </si>
-  <si>
-    <t>32_Jithin K N</t>
   </si>
   <si>
     <t>Joseph Ashwin Kottapurath</t>
@@ -1022,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1069,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1083,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1097,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1111,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1125,7 +1118,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1139,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1153,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1167,10 +1160,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1178,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1195,7 +1188,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1209,7 +1202,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -1220,13 +1213,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
         <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1237,7 +1230,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1251,10 +1244,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1265,7 +1258,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -1279,7 +1272,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -1293,7 +1286,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -1307,7 +1300,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -1321,7 +1314,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1335,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1349,7 +1342,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -1363,7 +1356,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -1374,13 +1367,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,10 +1384,10 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1405,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1419,7 +1412,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -1433,7 +1426,7 @@
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
@@ -1447,10 +1440,10 @@
         <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1454,7 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -1475,7 +1468,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
@@ -1489,10 +1482,10 @@
         <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1500,13 +1493,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1514,13 +1507,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1528,13 +1521,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1542,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1556,13 +1549,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1570,13 +1563,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1584,13 +1577,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1598,13 +1591,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1612,13 +1605,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1626,13 +1619,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1640,13 +1633,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1654,13 +1647,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1668,13 +1661,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1682,13 +1675,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1696,13 +1689,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1710,13 +1703,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1724,13 +1717,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1738,13 +1731,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1752,13 +1745,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1766,13 +1759,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1780,13 +1773,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1794,13 +1787,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,13 +1801,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1822,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1836,13 +1829,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1850,13 +1843,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1864,13 +1857,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
         <v>175</v>
-      </c>
-      <c r="D60" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1878,13 +1871,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
         <v>178</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1892,13 +1885,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
         <v>181</v>
-      </c>
-      <c r="D62" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1906,13 +1899,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" t="s">
         <v>184</v>
-      </c>
-      <c r="D63" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1920,13 +1913,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" t="s">
         <v>187</v>
-      </c>
-      <c r="D64" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
